--- a/branches/jose/StructureDefinition-hiv-case-record-model.xlsx
+++ b/branches/jose/StructureDefinition-hiv-case-record-model.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="230">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T18:06:48+00:00</t>
+    <t>2022-03-04T08:28:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1011,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ84"/>
+  <dimension ref="A1:AJ80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5570,7 +5570,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5596,10 +5596,10 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5650,7 +5650,7 @@
         <v>73</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>74</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5696,10 +5696,10 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5750,7 +5750,7 @@
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>74</v>
@@ -5770,7 +5770,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5796,10 +5796,10 @@
         <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5850,7 +5850,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>74</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -5896,10 +5896,10 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -5950,7 +5950,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -5970,7 +5970,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -5993,13 +5993,13 @@
         <v>73</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6050,7 +6050,7 @@
         <v>73</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>74</v>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6096,10 +6096,10 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6150,7 +6150,7 @@
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>74</v>
@@ -6170,7 +6170,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6193,13 +6193,13 @@
         <v>73</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6250,7 +6250,7 @@
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>74</v>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6293,13 +6293,13 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6350,7 +6350,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>74</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6450,7 +6450,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -6470,7 +6470,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6550,7 +6550,7 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>74</v>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6593,13 +6593,13 @@
         <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6650,7 +6650,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -6670,7 +6670,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -6693,13 +6693,13 @@
         <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -6750,7 +6750,7 @@
         <v>73</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>74</v>
@@ -6770,7 +6770,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -6793,13 +6793,13 @@
         <v>73</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -6850,7 +6850,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>74</v>
@@ -6870,7 +6870,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -6896,10 +6896,10 @@
         <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -6950,7 +6950,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -6996,10 +6996,10 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7050,7 +7050,7 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7096,10 +7096,10 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7150,7 +7150,7 @@
         <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
@@ -7170,7 +7170,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7193,13 +7193,13 @@
         <v>73</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7250,7 +7250,7 @@
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>74</v>
@@ -7270,7 +7270,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7293,13 +7293,13 @@
         <v>73</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7350,7 +7350,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>74</v>
@@ -7370,7 +7370,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7393,13 +7393,13 @@
         <v>73</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7450,7 +7450,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -7470,7 +7470,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7496,10 +7496,10 @@
         <v>83</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7550,7 +7550,7 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
@@ -7570,7 +7570,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7593,13 +7593,13 @@
         <v>73</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -7650,7 +7650,7 @@
         <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
@@ -7670,7 +7670,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -7693,13 +7693,13 @@
         <v>73</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -7750,7 +7750,7 @@
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>74</v>
@@ -7770,7 +7770,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -7793,13 +7793,13 @@
         <v>73</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -7850,7 +7850,7 @@
         <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>74</v>
@@ -7870,7 +7870,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -7896,10 +7896,10 @@
         <v>83</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -7950,7 +7950,7 @@
         <v>73</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -7970,7 +7970,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -7996,10 +7996,10 @@
         <v>83</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8050,7 +8050,7 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>74</v>
@@ -8070,7 +8070,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8096,10 +8096,10 @@
         <v>83</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8150,7 +8150,7 @@
         <v>73</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
@@ -8170,7 +8170,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8196,10 +8196,10 @@
         <v>83</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8250,7 +8250,7 @@
         <v>73</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>74</v>
@@ -8270,7 +8270,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8296,10 +8296,10 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -8350,7 +8350,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>74</v>
@@ -8370,7 +8370,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8396,10 +8396,10 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -8450,7 +8450,7 @@
         <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -8496,10 +8496,10 @@
         <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -8550,7 +8550,7 @@
         <v>73</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>74</v>
@@ -8570,7 +8570,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -8593,13 +8593,13 @@
         <v>73</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -8650,7 +8650,7 @@
         <v>73</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>74</v>
@@ -8670,7 +8670,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -8696,10 +8696,10 @@
         <v>83</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -8750,7 +8750,7 @@
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>74</v>
@@ -8770,7 +8770,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -8796,10 +8796,10 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -8850,7 +8850,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>74</v>
@@ -8870,7 +8870,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -8896,10 +8896,10 @@
         <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -8950,7 +8950,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -8970,7 +8970,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -8993,13 +8993,13 @@
         <v>73</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -9050,7 +9050,7 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>74</v>
@@ -9065,406 +9065,6 @@
         <v>73</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
         <v>73</v>
       </c>
     </row>

--- a/branches/jose/StructureDefinition-hiv-case-record-model.xlsx
+++ b/branches/jose/StructureDefinition-hiv-case-record-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:28:51+00:00</t>
+    <t>2022-03-04T08:37:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/jose/StructureDefinition-hiv-case-record-model.xlsx
+++ b/branches/jose/StructureDefinition-hiv-case-record-model.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:37:21+00:00</t>
+    <t>2022-03-08T06:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
